--- a/P/Work.WebApp/_Code/Excel/超渡法會牒文_個別祖先.xlsx
+++ b/P/Work.WebApp/_Code/Excel/超渡法會牒文_個別祖先.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>初</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,7 +33,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -158,6 +158,14 @@
       <sz val="32"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -298,6 +306,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
@@ -319,9 +333,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" textRotation="255"/>
     </xf>
@@ -340,14 +351,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
@@ -716,10 +724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:AG15"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.75" x14ac:dyDescent="0.25"/>
@@ -767,7 +775,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="38"/>
+      <c r="N1" s="40"/>
       <c r="O1" s="4"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="4"/>
@@ -785,373 +793,373 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="4"/>
-      <c r="AF1" s="48"/>
+      <c r="AF1" s="49"/>
       <c r="AG1" s="4"/>
     </row>
     <row r="2" spans="1:33" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="12"/>
       <c r="G2" s="28"/>
       <c r="H2" s="29"/>
-      <c r="I2" s="44"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="30"/>
       <c r="K2" s="28"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="44"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="46"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="49"/>
+      <c r="P2" s="50"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
       <c r="V2" s="9"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="50"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="51"/>
       <c r="Z2" s="10"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="38"/>
+      <c r="AC2" s="40"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="48"/>
+      <c r="AF2" s="49"/>
       <c r="AG2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="6"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="44"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="52"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="31"/>
-      <c r="H3" s="44"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="44"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="46"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="49"/>
+      <c r="P3" s="50"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="50"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="14"/>
       <c r="AB3" s="15"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
       <c r="AE3" s="14"/>
-      <c r="AF3" s="48"/>
+      <c r="AF3" s="49"/>
       <c r="AG3" s="14"/>
     </row>
     <row r="4" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="19"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="45"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="19"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="50"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="51"/>
       <c r="Z4" s="18"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="18"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="52"/>
       <c r="AE4" s="19"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="14"/>
-    </row>
-    <row r="5" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="16"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="55"/>
+    </row>
+    <row r="5" spans="1:33" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="19"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="44"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="46"/>
       <c r="O5" s="55"/>
-      <c r="P5" s="40"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="55"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
       <c r="V5" s="55"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="50"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="51"/>
       <c r="Z5" s="18"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="18"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="51"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="52"/>
       <c r="AE5" s="19"/>
-      <c r="AF5" s="48"/>
+      <c r="AF5" s="49"/>
       <c r="AG5" s="55"/>
     </row>
-    <row r="6" spans="1:33" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="38"/>
+    <row r="6" spans="1:33" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="39"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="19"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="44"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="46"/>
       <c r="O6" s="55"/>
-      <c r="P6" s="40"/>
+      <c r="P6" s="57"/>
       <c r="Q6" s="55"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
       <c r="V6" s="55"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="51"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="52"/>
       <c r="AE6" s="19"/>
-      <c r="AF6" s="48"/>
+      <c r="AF6" s="49"/>
       <c r="AG6" s="55"/>
     </row>
-    <row r="7" spans="1:33" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+    <row r="7" spans="1:33" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="19"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="39"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="19"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="44"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="46"/>
       <c r="O7" s="55"/>
       <c r="P7" s="57"/>
       <c r="Q7" s="55"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
       <c r="V7" s="55"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="50"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="51"/>
       <c r="Z7" s="58"/>
       <c r="AA7" s="59"/>
       <c r="AB7" s="58"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="51"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="52"/>
       <c r="AE7" s="19"/>
-      <c r="AF7" s="48"/>
+      <c r="AF7" s="49"/>
       <c r="AG7" s="55"/>
     </row>
-    <row r="8" spans="1:33" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="19"/>
+    <row r="8" spans="1:33" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="19"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="44"/>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="46"/>
       <c r="O8" s="55"/>
-      <c r="P8" s="57"/>
+      <c r="P8" s="60"/>
       <c r="Q8" s="55"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
       <c r="V8" s="55"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="50"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="51"/>
       <c r="Z8" s="58"/>
       <c r="AA8" s="59"/>
       <c r="AB8" s="58"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="51"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="52"/>
       <c r="AE8" s="19"/>
-      <c r="AF8" s="48"/>
+      <c r="AF8" s="49"/>
       <c r="AG8" s="55"/>
     </row>
     <row r="9" spans="1:33" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="47"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="F9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="41"/>
       <c r="H9" s="19"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="44"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="55"/>
       <c r="P9" s="60"/>
       <c r="Q9" s="55"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
       <c r="V9" s="55"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="50"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="51"/>
       <c r="Z9" s="58"/>
       <c r="AA9" s="59"/>
       <c r="AB9" s="58"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="51"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="52"/>
       <c r="AE9" s="19"/>
-      <c r="AF9" s="48"/>
+      <c r="AF9" s="22"/>
       <c r="AG9" s="55"/>
     </row>
-    <row r="10" spans="1:33" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+    <row r="10" spans="1:33" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="39"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="19"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="28"/>
       <c r="O10" s="55"/>
-      <c r="P10" s="60"/>
+      <c r="P10" s="42"/>
       <c r="Q10" s="55"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
       <c r="V10" s="55"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="50"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="51"/>
       <c r="Z10" s="58"/>
       <c r="AA10" s="59"/>
       <c r="AB10" s="58"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="51"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="52"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="22"/>
       <c r="AG10" s="55"/>
     </row>
-    <row r="11" spans="1:33" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+    <row r="11" spans="1:33" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="19"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="28"/>
+      <c r="J11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="55"/>
-      <c r="P11" s="40"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="55"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
       <c r="V11" s="55"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="50"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="51"/>
       <c r="Z11" s="58"/>
       <c r="AA11" s="59"/>
       <c r="AB11" s="58"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="22"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="63"/>
       <c r="AG11" s="55"/>
     </row>
     <row r="12" spans="1:33" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="47"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
@@ -1161,136 +1169,99 @@
       <c r="J12" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="12"/>
       <c r="O12" s="55"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="55"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
       <c r="V12" s="55"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="50"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="51"/>
       <c r="Z12" s="58"/>
       <c r="AA12" s="59"/>
       <c r="AB12" s="58"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="51"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="52"/>
       <c r="AE12" s="62"/>
       <c r="AF12" s="63"/>
       <c r="AG12" s="55"/>
     </row>
-    <row r="13" spans="1:33" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="47"/>
+    <row r="13" spans="1:33" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="19"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="12"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="28"/>
       <c r="O13" s="55"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="55"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
       <c r="V13" s="55"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="50"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="51"/>
       <c r="Z13" s="58"/>
       <c r="AA13" s="59"/>
       <c r="AB13" s="58"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="51"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="52"/>
       <c r="AE13" s="62"/>
-      <c r="AF13" s="63"/>
+      <c r="AF13" s="64"/>
       <c r="AG13" s="55"/>
     </row>
-    <row r="14" spans="1:33" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="55"/>
-    </row>
-    <row r="15" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
+    <row r="14" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
